--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed5/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.318</v>
+        <v>6.461</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.378</v>
+        <v>-12.974</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.104</v>
+        <v>-13.057</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.258000000000001</v>
+        <v>5.314000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.95</v>
+        <v>-12.154</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -627,15 +627,15 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.36</v>
+        <v>12.763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.878</v>
+        <v>-21.474</v>
       </c>
       <c r="B12" t="n">
-        <v>6.9</v>
+        <v>6.75</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.562</v>
+        <v>7.543000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>11.592</v>
+        <v>12.498</v>
       </c>
     </row>
     <row r="15">
@@ -757,13 +757,13 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-14.332</v>
+        <v>-12.478</v>
       </c>
       <c r="D19" t="n">
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.906</v>
+        <v>12.929</v>
       </c>
     </row>
     <row r="20">
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.018</v>
+        <v>-13.036</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.052</v>
+        <v>13.345</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.624000000000001</v>
+        <v>6.619</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.21</v>
+        <v>-12.512</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
